--- a/data/grade.xlsx
+++ b/data/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Coding/projects/active/toci_sari_bari/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E52AF4-8C67-5947-85AA-46E38118DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9997DF-7D9D-514F-8101-877BD0692ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{D9611638-FA77-FC4C-BE5B-69A19299310F}"/>
+    <workbookView xWindow="3420" yWindow="-18760" windowWidth="28040" windowHeight="16580" xr2:uid="{D9611638-FA77-FC4C-BE5B-69A19299310F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Risk of Bias</t>
   </si>
   <si>
-    <t>Heterogeneity</t>
-  </si>
-  <si>
     <t>Imprecision</t>
   </si>
   <si>
@@ -61,49 +58,52 @@
     <t>We did not downgrade as the most weighted studies were judged as low risk of bias.</t>
   </si>
   <si>
-    <t>Certainty was downgraded by 2 levels due to serious heterogeneity as the prediction interval suggests future studies could estimate different results leading to opposite clinical decisions (upper bound of the confidence interval estimated as OR = 1.10) and substantial variability in point estimates across studies, both in magnitude and direction of effect.</t>
-  </si>
-  <si>
-    <t>We did not downgrade due to imprecision, although by a close call, despite reasonably large confidence intervals (35% reduction to 6% reduction in mortality) as the upper bound of the CI suggests clinically relevant benefit.</t>
-  </si>
-  <si>
     <t>We did not find compelling evidence to downgrade due to indirectness.</t>
   </si>
   <si>
     <t>We did not find compelling evidence to downgrade due to publication bias.</t>
   </si>
   <si>
-    <t>LOW QUALITY OF EVIDENCE, downgraded by 2 levels due to serious heterogeneity</t>
-  </si>
-  <si>
     <t>Tocilizumab</t>
   </si>
   <si>
-    <t>We did not downgrade as the study contributing the most to the final result (COV-BARRIER), out of 3 studies, was judged as low risk of bias.</t>
-  </si>
-  <si>
-    <t>We did not downgrade, although by a close call, based on heterogeneity alone: point estimates are reasonably similar; heterogeneity as evidenced by tau is reasonable; the impact of the heterogeneity, as measured by the prediction interval, is that future studies may suggest an arguably irrelevant benefit in practice (1% relative reduction in mortality) but does not include a null effect.</t>
-  </si>
-  <si>
-    <t>We did not downgrade, although by a close call, based on imprecision alone: clinical decision would likely not differ from worst-case (OR = 0.89) to best case (OR = 0.42) scenarios within the confidence interval; however, the final result is based on low total number of studies and outcome events leading to a large confidence interval.</t>
-  </si>
-  <si>
-    <t>MODERATE QUALITY OF EVIDENCE, downgraded 1 level due to imprecision and heterogeneity (two close calls)</t>
-  </si>
-  <si>
     <t>Baricitinib</t>
   </si>
   <si>
     <t>Sarilumab</t>
   </si>
   <si>
-    <t xml:space="preserve"> Certainty was downgraded by 1 level due to substantial variability in point estimates, both in magnitude and direction of effect.</t>
-  </si>
-  <si>
-    <t>Certainty was downgraded by 2 levels due to serious imprecision (the confidence interval includes both clinically relevant benefits and harms).</t>
-  </si>
-  <si>
-    <t>VERY LOW QUALITY OF EVIDENCE, downgraded by 1 level due to heterogeneity and 2 levels due to serious imprecision.</t>
+    <t>We did not downgrade as most studies were of reasonably low risk of bias or minor concerns, unlikely to have materially biased the finals results with clinically meaningful magnitudes.</t>
+  </si>
+  <si>
+    <t>Certainty was downgraded by 1 level due to heterogeneity, as the prediction interval suggests that future studies could estimate different results leading to opposite clinical decisions (benefit as large as 44% reduction, harm as large as 10% increase).</t>
+  </si>
+  <si>
+    <t>Inconsistency</t>
+  </si>
+  <si>
+    <t>MODERATE QUALITY OF EVIDENCE, downgraded by 1 level due to inconsistency</t>
+  </si>
+  <si>
+    <t>MODERATE QUALITY OF EVIDENCE, downgraded by 1 level due to imprecision</t>
+  </si>
+  <si>
+    <t>LOW QUALITY OF EVIDENCE, downgraded by 2 levels due to serious imprecision.</t>
+  </si>
+  <si>
+    <t>We did not downgrade due to heterogeneity as tau was not judged as a matter of concern (tau = 0.16) and the prediction interval is consistent with the estimated credible interval (future studies would not change the conclusions of the current range of possible effects).</t>
+  </si>
+  <si>
+    <t>We did not downgrade due to heterogeneity as tau was not judged as a matter of concern (tau = 0.13) and the prediction interval is consistent with the estimated credible interval (future studies would not change the conclusions of the current range of possible effects).</t>
+  </si>
+  <si>
+    <t>We did not downgrade due to imprecision, although by a close call, despite reasonably large credible intervals (35% reduction to 6% reduction in mortality) as the upper bound of the CrI suggests clinically relevant benefit.</t>
+  </si>
+  <si>
+    <t>Certainty was downgraded by 1 level due to imprecision, as the credible interval includes benefit but also includes null or trivially harmful effects.</t>
+  </si>
+  <si>
+    <t>Certainty was downgraded by 2 levels due to serious imprecision (the credible interval includes both clinically relevant benefits and harms).</t>
   </si>
 </sst>
 </file>
@@ -145,9 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +468,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,88 +481,88 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/grade.xlsx
+++ b/data/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Coding/projects/active/toci_sari_bari/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9997DF-7D9D-514F-8101-877BD0692ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CF8987-B0F8-1844-88E9-28D4F6F4E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="-18760" windowWidth="28040" windowHeight="16580" xr2:uid="{D9611638-FA77-FC4C-BE5B-69A19299310F}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="28040" windowHeight="16560" xr2:uid="{D9611638-FA77-FC4C-BE5B-69A19299310F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
